--- a/06_Projektstrukturplan/Business-Budget-DE.xlsx
+++ b/06_Projektstrukturplan/Business-Budget-DE.xlsx
@@ -5,18 +5,21 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\OneDrive\Dokumente\studium\2.Semester\Arbeitstechnik 2\Projektmanagement\Git\06_Projektstrukturplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Narmathan-PC\Nachhatigkeitstagung\06_Projektstrukturplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA2F85-F08B-4BB7-84B0-A91471A0DC71}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF5FE16-D300-46D3-9791-27010C8F329B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geschäftsbudget im Detail" sheetId="1" r:id="rId1"/>
-    <sheet name="Budget Lohn-Material-Fixkosten" sheetId="3" r:id="rId2"/>
-    <sheet name="Tabelle1" sheetId="4" r:id="rId3"/>
-    <sheet name="Tabelle2" sheetId="5" r:id="rId4"/>
+    <sheet name="Tabelle3" sheetId="6" r:id="rId2"/>
+    <sheet name="Budget Lohn-Material-Fixkosten" sheetId="3" r:id="rId3"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId4"/>
+    <sheet name="Tabelle2" sheetId="5" r:id="rId5"/>
+    <sheet name="Catering" sheetId="8" r:id="rId6"/>
+    <sheet name="Miete Raum" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="103">
   <si>
     <t>BUDGET</t>
   </si>
@@ -238,6 +241,111 @@
   </si>
   <si>
     <t>STD LOHN</t>
+  </si>
+  <si>
+    <t>Kostenzusammenstellung</t>
+  </si>
+  <si>
+    <t>Gesamtkosten exkl. Mwst.</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Plenarsaal (Tagung)</t>
+  </si>
+  <si>
+    <t>Foyer 1 (Empfang)</t>
+  </si>
+  <si>
+    <t>Foyer 2 Nord  &amp; Süd (Kaffee &amp; Gipfeli)</t>
+  </si>
+  <si>
+    <t>Halle 1.1 (Lunch)</t>
+  </si>
+  <si>
+    <t>Miete</t>
+  </si>
+  <si>
+    <t>Personalkosten</t>
+  </si>
+  <si>
+    <t>Mobiliar</t>
+  </si>
+  <si>
+    <t>Elektrische Installationen</t>
+  </si>
+  <si>
+    <t>Nebenkosten</t>
+  </si>
+  <si>
+    <t>Total Halle 1.1</t>
+  </si>
+  <si>
+    <t>Audio- &amp; Videotechnik</t>
+  </si>
+  <si>
+    <t>Total Plenarsaal</t>
+  </si>
+  <si>
+    <t>Total Foyer 1</t>
+  </si>
+  <si>
+    <t>Foyer 2 (Nord &amp; Süd Catering)</t>
+  </si>
+  <si>
+    <t>Total Foyer 2</t>
+  </si>
+  <si>
+    <t>Znüni</t>
+  </si>
+  <si>
+    <t>Gipfeli</t>
+  </si>
+  <si>
+    <t>Lunch</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Getränk</t>
+  </si>
+  <si>
+    <t>8dl</t>
+  </si>
+  <si>
+    <t>Kaffee / Espresso / Tee</t>
+  </si>
+  <si>
+    <t>(Ø Gipfeli &amp; Butterbrioche)</t>
+  </si>
+  <si>
+    <t>(Ø4dl/pro pers.)</t>
+  </si>
+  <si>
+    <t>Anzahl</t>
+  </si>
+  <si>
+    <t>Zwischentotal</t>
+  </si>
+  <si>
+    <t>Kaffe / Espresso / Tee</t>
+  </si>
+  <si>
+    <t>Preis (Stk.)</t>
+  </si>
+  <si>
+    <t>Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
   </si>
 </sst>
 </file>
@@ -349,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,8 +572,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -556,6 +682,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -571,7 +717,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -666,6 +812,69 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="21" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="20" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="21" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="22" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Besuchter Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1281,14 +1490,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1298,7 +1507,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1411,14 +1620,14 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40dd-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4f45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="1">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1428,7 +1637,7 @@
             </a14:hiddenLine>
           </a:ext>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -1770,20 +1979,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A76" sqref="A76:E79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +2005,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="1"/>
@@ -1805,7 +2014,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1814,7 +2023,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1823,7 +2032,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -1832,7 +2041,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -1841,7 +2050,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -1850,7 +2059,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1859,7 +2068,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -1868,7 +2077,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1877,7 +2086,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1886,7 +2095,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>7</v>
       </c>
@@ -1903,7 +2112,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>8</v>
       </c>
@@ -1923,7 +2132,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
@@ -1943,7 +2152,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1952,7 +2161,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1961,7 +2170,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1969,7 +2178,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="13" t="s">
         <v>0</v>
@@ -1984,7 +2193,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>12</v>
       </c>
@@ -1995,7 +2204,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2006,7 +2215,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>14</v>
       </c>
@@ -2024,7 +2233,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>15</v>
       </c>
@@ -2042,7 +2251,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>16</v>
       </c>
@@ -2060,7 +2269,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>17</v>
       </c>
@@ -2078,7 +2287,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>18</v>
       </c>
@@ -2096,7 +2305,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>19</v>
       </c>
@@ -2114,7 +2323,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>20</v>
       </c>
@@ -2132,7 +2341,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="18"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
@@ -2141,7 +2350,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>21</v>
       </c>
@@ -2158,7 +2367,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2167,7 +2376,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
         <v>22</v>
       </c>
@@ -2178,7 +2387,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>23</v>
       </c>
@@ -2189,7 +2398,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>24</v>
       </c>
@@ -2207,7 +2416,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2432,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>26</v>
       </c>
@@ -2239,7 +2448,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>27</v>
       </c>
@@ -2255,7 +2464,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>28</v>
       </c>
@@ -2271,7 +2480,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>29</v>
       </c>
@@ -2287,7 +2496,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>30</v>
       </c>
@@ -2301,7 +2510,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>31</v>
       </c>
@@ -2317,7 +2526,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>32</v>
       </c>
@@ -2331,7 +2540,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>33</v>
       </c>
@@ -2345,7 +2554,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>34</v>
       </c>
@@ -2359,7 +2568,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>35</v>
       </c>
@@ -2370,7 +2579,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="24"/>
       <c r="B45" s="26">
         <f>SUM(B33:B44)</f>
@@ -2385,7 +2594,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>42</v>
       </c>
@@ -2396,7 +2605,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>36</v>
       </c>
@@ -2410,7 +2619,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>37</v>
       </c>
@@ -2424,7 +2633,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>43</v>
       </c>
@@ -2438,7 +2647,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="24"/>
       <c r="B50" s="29">
         <f>SUM(B47:B49)</f>
@@ -2453,7 +2662,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>41</v>
       </c>
@@ -2464,7 +2673,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="24" t="s">
         <v>40</v>
       </c>
@@ -2478,7 +2687,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>39</v>
       </c>
@@ -2492,7 +2701,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="24" t="s">
         <v>38</v>
       </c>
@@ -2506,7 +2715,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="24"/>
       <c r="B55" s="29">
         <f>SUM(B52:B54)</f>
@@ -2521,7 +2730,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
         <v>3</v>
       </c>
@@ -2532,7 +2741,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
         <v>4</v>
       </c>
@@ -2546,7 +2755,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="24" t="s">
         <v>45</v>
       </c>
@@ -2560,7 +2769,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="24" t="s">
         <v>44</v>
       </c>
@@ -2574,7 +2783,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="24" t="s">
         <v>46</v>
       </c>
@@ -2588,7 +2797,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="24"/>
       <c r="B61" s="29">
         <f>SUM(B57:B60)</f>
@@ -2600,7 +2809,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
         <v>47</v>
       </c>
@@ -2611,7 +2820,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="24" t="s">
         <v>48</v>
       </c>
@@ -2625,7 +2834,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="24" t="s">
         <v>49</v>
       </c>
@@ -2639,7 +2848,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="24" t="s">
         <v>50</v>
       </c>
@@ -2653,7 +2862,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="24"/>
       <c r="B66" s="30">
         <f>SUM(B63:B65)</f>
@@ -2668,7 +2877,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
         <v>51</v>
       </c>
@@ -2679,7 +2888,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
         <v>52</v>
       </c>
@@ -2693,7 +2902,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="24" t="s">
         <v>53</v>
       </c>
@@ -2707,7 +2916,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>54</v>
       </c>
@@ -2721,7 +2930,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="24" t="s">
         <v>55</v>
       </c>
@@ -2735,7 +2944,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="24"/>
       <c r="B72" s="30">
         <f>SUM(B68:B71)</f>
@@ -2750,7 +2959,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="31" t="s">
         <v>21</v>
       </c>
@@ -2767,7 +2976,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -2776,7 +2985,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -2785,7 +2994,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="47" t="s">
         <v>66</v>
       </c>
@@ -2796,7 +3005,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="47"/>
       <c r="B77" s="47"/>
       <c r="C77" s="47"/>
@@ -2805,7 +3014,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="47"/>
       <c r="B78" s="47"/>
       <c r="C78" s="47"/>
@@ -2814,7 +3023,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="47"/>
       <c r="B79" s="47"/>
       <c r="C79" s="47"/>
@@ -2854,28 +3063,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B72E5A-CA7A-4053-B54B-667C81954478}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection activeCell="A43" sqref="A43:J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.125" customWidth="1"/>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="4" max="4" width="11.875" customWidth="1"/>
+    <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.83203125" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
+    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
@@ -2893,7 +3114,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2907,7 +3128,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2921,7 +3142,7 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2935,7 +3156,7 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2949,7 +3170,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2963,7 +3184,7 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2977,7 +3198,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2991,7 +3212,7 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3005,7 +3226,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3019,7 +3240,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -3033,7 +3254,7 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -3053,7 +3274,7 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -3076,7 +3297,7 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="40"/>
       <c r="C14" s="40"/>
@@ -3090,7 +3311,7 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -3104,7 +3325,7 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -3117,7 +3338,7 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="53" t="s">
         <v>60</v>
@@ -3143,7 +3364,7 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>57</v>
       </c>
@@ -3167,7 +3388,7 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
@@ -3183,7 +3404,7 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>59</v>
       </c>
@@ -3217,7 +3438,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>59</v>
       </c>
@@ -3239,7 +3460,7 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>59</v>
       </c>
@@ -3261,7 +3482,7 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>59</v>
       </c>
@@ -3283,7 +3504,7 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>59</v>
       </c>
@@ -3305,7 +3526,7 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
@@ -3325,7 +3546,7 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>58</v>
       </c>
@@ -3341,7 +3562,7 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>59</v>
       </c>
@@ -3363,7 +3584,7 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>59</v>
       </c>
@@ -3385,7 +3606,7 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>59</v>
       </c>
@@ -3407,7 +3628,7 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>59</v>
       </c>
@@ -3429,7 +3650,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>59</v>
       </c>
@@ -3451,7 +3672,7 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="18"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -3471,7 +3692,7 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>2</v>
       </c>
@@ -3487,7 +3708,7 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>59</v>
       </c>
@@ -3509,7 +3730,7 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>59</v>
       </c>
@@ -3531,7 +3752,7 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>59</v>
       </c>
@@ -3553,7 +3774,7 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="18" t="s">
         <v>59</v>
       </c>
@@ -3575,7 +3796,7 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="18" t="s">
         <v>59</v>
       </c>
@@ -3597,7 +3818,7 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -3617,7 +3838,7 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
@@ -3631,7 +3852,7 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="20" t="s">
         <v>1</v>
       </c>
@@ -3653,12 +3874,12 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="51" t="s">
         <v>66</v>
       </c>
@@ -3674,7 +3895,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="51"/>
       <c r="B44" s="51"/>
       <c r="C44" s="51"/>
@@ -3688,7 +3909,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="51"/>
       <c r="B45" s="51"/>
       <c r="C45" s="51"/>
@@ -3726,7 +3947,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D5D5B4-92F5-47F2-9D53-D480AFA53649}">
   <dimension ref="A1:D76"/>
   <sheetViews>
@@ -3734,9 +3955,9 @@
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -3744,7 +3965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3758,7 +3979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3772,7 +3993,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3786,7 +4007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>0</v>
       </c>
@@ -3797,17 +4018,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -3821,7 +4042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -3835,7 +4056,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -3849,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3863,7 +4084,7 @@
         <v>-35</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -3877,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -3891,7 +4112,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -3905,7 +4126,7 @@
         <v>-65</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>21</v>
       </c>
@@ -3916,17 +4137,17 @@
         <v>7020</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>24</v>
       </c>
@@ -3940,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -3951,7 +4172,7 @@
         <v>-25</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -3962,7 +4183,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
@@ -3973,7 +4194,7 @@
         <v>-44</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>28</v>
       </c>
@@ -3984,7 +4205,7 @@
         <v>-20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -3995,7 +4216,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -4003,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -4014,7 +4235,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>32</v>
       </c>
@@ -4022,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>33</v>
       </c>
@@ -4030,7 +4251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>34</v>
       </c>
@@ -4038,12 +4259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" s="46">
         <v>2423</v>
       </c>
@@ -4051,12 +4272,12 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>36</v>
       </c>
@@ -4064,7 +4285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>37</v>
       </c>
@@ -4072,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -4080,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B50" s="46">
         <v>0</v>
       </c>
@@ -4088,12 +4309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>40</v>
       </c>
@@ -4101,7 +4322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>39</v>
       </c>
@@ -4109,7 +4330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -4117,7 +4338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="46">
         <v>0</v>
       </c>
@@ -4125,12 +4346,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -4138,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>45</v>
       </c>
@@ -4146,7 +4367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -4154,7 +4375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>46</v>
       </c>
@@ -4162,17 +4383,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>48</v>
       </c>
@@ -4180,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -4188,7 +4409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>50</v>
       </c>
@@ -4196,7 +4417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B66" s="46">
         <v>0</v>
       </c>
@@ -4204,12 +4425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -4217,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>53</v>
       </c>
@@ -4225,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>54</v>
       </c>
@@ -4233,7 +4454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4241,7 +4462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="46">
         <v>0</v>
       </c>
@@ -4249,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -4260,7 +4481,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>66</v>
       </c>
@@ -4270,17 +4491,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10E5A555-08BA-43E9-ACD5-79447981A5BA}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -4288,7 +4509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>0</v>
       </c>
@@ -4299,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G13" s="46">
         <v>850</v>
       </c>
@@ -4310,7 +4531,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>60</v>
       </c>
@@ -4330,7 +4551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -4347,12 +4568,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -4381,7 +4602,7 @@
         <v>-50</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -4392,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -4403,7 +4624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -4414,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -4425,7 +4646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G25" s="46">
         <v>850</v>
       </c>
@@ -4433,12 +4654,12 @@
         <v>800</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>59</v>
       </c>
@@ -4449,7 +4670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -4460,7 +4681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -4471,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>59</v>
       </c>
@@ -4482,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -4493,7 +4714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G32" s="46">
         <v>0</v>
       </c>
@@ -4501,12 +4722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -4517,7 +4738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -4528,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -4539,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -4550,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -4561,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G39" s="46">
         <v>0</v>
       </c>
@@ -4569,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>1</v>
       </c>
@@ -4580,7 +4801,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -4588,4 +4809,834 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D424FF73-0CB5-4B48-8C8F-1AD846A0EEE6}">
+  <dimension ref="A2:I21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="59">
+        <v>3.8</v>
+      </c>
+      <c r="H3" s="57">
+        <v>450</v>
+      </c>
+      <c r="I3" s="59">
+        <f>PRODUCT(G3:H3)</f>
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="57"/>
+      <c r="F4" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" s="59">
+        <v>2.5</v>
+      </c>
+      <c r="H4" s="57">
+        <v>550</v>
+      </c>
+      <c r="I4" s="59">
+        <f t="shared" ref="I4:I5" si="0">PRODUCT(G4:H4)</f>
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="60"/>
+      <c r="F5" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="62">
+        <v>7.5</v>
+      </c>
+      <c r="H5" s="60">
+        <v>400</v>
+      </c>
+      <c r="I5" s="62">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="66">
+        <f>SUM(I3:I5)</f>
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
+        <v>2</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="56" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" s="59">
+        <v>45</v>
+      </c>
+      <c r="H9" s="57">
+        <v>750</v>
+      </c>
+      <c r="I9" s="82">
+        <f>PRODUCT(G9:H9)</f>
+        <v>33750</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="59">
+        <v>7.5</v>
+      </c>
+      <c r="H10" s="57">
+        <v>500</v>
+      </c>
+      <c r="I10" s="82">
+        <f t="shared" ref="I10:I11" si="1">PRODUCT(G10:H10)</f>
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="62">
+        <v>3.8</v>
+      </c>
+      <c r="H11" s="60">
+        <v>300</v>
+      </c>
+      <c r="I11" s="62">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="66">
+        <f>SUM(I9:I11)</f>
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="69">
+        <v>3</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="71"/>
+      <c r="B15" s="71" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="73">
+        <f>I6</f>
+        <v>6085</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="71"/>
+      <c r="B16" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="76">
+        <f>I12</f>
+        <v>38640</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="71"/>
+      <c r="B17" s="78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="83">
+        <f>SUM(I15:I16)</f>
+        <v>44725</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="87">
+        <v>3</v>
+      </c>
+      <c r="H20" s="84"/>
+      <c r="I20" s="90">
+        <f>PRODUCT(G20*I17)</f>
+        <v>134175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3103E3F8-6ACB-4D30-94B1-7335F76F3622}">
+  <dimension ref="A1:H33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="55">
+        <v>1</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="59">
+        <v>17820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="59">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="62">
+        <v>10275</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="G6" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="66">
+        <f>SUM(H2:H5)</f>
+        <v>32019</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="55">
+        <v>2</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="62">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="63" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="66">
+        <f>SUM(H9:H11)</f>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G13" s="54"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="55">
+        <v>3</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="63" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="66">
+        <f>SUM(H15:H16)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="55">
+        <v>4</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
+      <c r="B20" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="59">
+        <v>7890</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H21" s="59">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="59">
+        <v>7600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="59">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="62">
+        <v>5195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="66">
+        <f>SUM(H20+H21+H22+H23+H24)</f>
+        <v>23693</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="69">
+        <v>5</v>
+      </c>
+      <c r="B28" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="70" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="70" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="71"/>
+      <c r="B29" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
+      <c r="G29" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="73">
+        <f>H6</f>
+        <v>32019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="71"/>
+      <c r="B30" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H30" s="73">
+        <f>H12</f>
+        <v>602</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="71"/>
+      <c r="B31" s="71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="73">
+        <f>H17</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="71"/>
+      <c r="B32" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="76">
+        <f>H25</f>
+        <v>23693</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="71"/>
+      <c r="B33" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="H33" s="80">
+        <f>SUM(H29:H32)</f>
+        <v>57514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>